--- a/数据/省妇幼报告/陈嘉绮-激素检测报告-2022-05-25.xlsx
+++ b/数据/省妇幼报告/陈嘉绮-激素检测报告-2022-05-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AONE爱湾医学\医学中心\产品\PCOS多囊卵巢综合征\多中心项目\省妇幼报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\linuxPathFile\shenZhen_CentOs\project\long-term-proj\pcos\PCOS_transfer_data-new\数据\省妇幼报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE647F-47F9-4B20-876E-6A96EADF0DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1462EC-C0A8-4DF5-B9CC-AFC013410C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -716,148 +716,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -884,74 +812,146 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,13 +983,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>320040</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1406,541 +1406,541 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="7" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-    </row>
-    <row r="2" spans="1:12" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="5.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:12" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="90" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="85" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="76" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="76" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="82" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="73" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="75"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="56">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="53">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="62" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="56">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="53">
         <v>2.8260000000000001</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="56">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="53">
         <v>1596.6020000000001</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>4</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="59">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="56">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>5</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="56">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="53">
         <v>6.2549999999999999</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="59">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="56">
         <v>1.0489999999999999</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="53" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="39" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37" t="s">
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="84"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="37" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:21" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="84"/>
+    </row>
+    <row r="22" spans="1:21" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="50" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34" t="s">
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="84"/>
+    </row>
+    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46" t="s">
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="I23" s="88"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="85"/>
+    </row>
+    <row r="24" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="82"/>
       <c r="H24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -1951,21 +1951,21 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
     </row>
-    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -1975,7 +1975,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -1992,34 +1992,27 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B18:C23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L18:L23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
@@ -2036,27 +2029,34 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B18:C23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L18:L23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2074,13 +2074,13 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>320040</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/数据/省妇幼报告/陈嘉绮-激素检测报告-2022-05-25.xlsx
+++ b/数据/省妇幼报告/陈嘉绮-激素检测报告-2022-05-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\linuxPathFile\shenZhen_CentOs\project\long-term-proj\pcos\PCOS_transfer_data-new\数据\省妇幼报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AONE爱湾医学\医学中心\产品\PCOS多囊卵巢综合征\多中心项目\省妇幼报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1462EC-C0A8-4DF5-B9CC-AFC013410C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8012425A-FB81-4D30-8E1E-6170393FB7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>第1页，共1页</t>
   </si>
@@ -82,9 +82,6 @@
     <t>检测项目</t>
   </si>
   <si>
-    <t>首次检测结果</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -106,33 +103,6 @@
     <t>脱氢表雄酮（DHEA）</t>
   </si>
   <si>
-    <t>参考范围</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>参考区间</t>
-  </si>
-  <si>
-    <t>内源性激素</t>
-  </si>
-  <si>
-    <t>0.02 - 0.45</t>
-  </si>
-  <si>
-    <t>280 - 3900</t>
-  </si>
-  <si>
-    <t>＜ 0.30</t>
-  </si>
-  <si>
     <t>主检者：</t>
   </si>
   <si>
@@ -149,38 +119,27 @@
   </si>
   <si>
     <t>卵泡期0.09 - 2.00；黄体期0.3-2.34</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>17α-羟孕酮（17α-OHP）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱氢表雄酮（DHEA）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄 15-18岁：&lt;6.6；
-年龄 19-30岁：&lt;13；
-年龄 31-40岁：&lt;10；
-年龄 41-50岁：&lt;8；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0.30 - 2.35</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2. 此结果仅对所检测的标本负责，供医师参考，不作为诊断证明之用。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1. 样本检测和报告由爱湾医学检验实验室负责。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>送检医生：</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,7 +175,7 @@
       </rPr>
       <t>雄激素5项（爱湾）+ 17α羟孕酮（爱湾）</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>2022-05-21</t>
@@ -235,11 +194,43 @@
   </si>
   <si>
     <t>余凡</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>3243146536+3343146537</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-30岁：&lt;13
+31-40岁：&lt;10
+41-50岁：&lt;8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考范围</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02 - 0.45</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>280 - 3900</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>＜ 0.30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关知识：
+多囊卵巢综合征(PCOS)是一种常见的妇科内分泌疾病，起病多见于青春期，临床上多以月经不调为主要症状，可有不孕、多毛痤疮、肥胖、黑棘皮症等多种不同临床表现。
+高雄性激素血症被普遍认为是PCOS关键的病理生理改变，对雄性激素的检测是临床诊断 PCOS的重要指标。在女性体内存在多种雄性激素，其中，睾酮(T)的血清水平高于其他雄性激素，是PCOS中主要的病源性雄性激素。此外，脱氢表雄酮(DHEA)、硫酸脱氢表雄酮(DHEAS)、雄烯二酮(A4)、17-羟基孕酮(17-OHP)、双氢睾酮(DHT)也是人体内重要的雄性激素类型，一些研究表明，这些激素的血清水平在PCOS患者与正常人群中存在差别，可为PCOS的诊断提供参考。脱氢表雄酮(DHEA)是睾酮生物合成中的一个中间产物；50%的PCOS病人会出现血清DHEAS水平的升高，其中5%的患者有且只有DHEAS这一种雄性激素特异性升高；A4是T的直接前体，据报道，雄性激素检测中如果加入A4，大约可以提高9%的PCOS检出率; DHT是睾酮经过5α-Reductase作用转化而来，其雄性激素活力最强，因此在睾酮水平正常的PCOS病人中，检测DHT能够帮助解释局部目标组织中雄性激素活性过高的现象; 17-OHP是类固醇合成通路中的中间物质，同时也是盐皮质激素和雄性激素的前体，其血清水平在非典型肾上腺皮质增生(Non-classic CAH)病人中异常升高，因此17-OHP 被许多相关专业学会推荐用于PCOS病患诊断，以排除非典型肾上腺皮质增生。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -314,11 +305,78 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -329,18 +387,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -351,81 +401,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,18 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBD4B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -675,94 +653,126 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -785,173 +795,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,13 +870,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>320040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1043,13 +930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>540099</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>55456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>826770</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>750569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1093,13 +980,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>109855</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>558088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,653 +1290,447 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="7" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="6"/>
+    <col min="11" max="11" width="11.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" ht="5.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="21" t="s">
+      <c r="B3" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="28"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="56"/>
       <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
     </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="37"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="49"/>
       <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="J7" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
     </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="47"/>
     </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="53">
+      <c r="G10" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="60"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="53">
+      <c r="G11" s="22">
         <v>2.8260000000000001</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>3</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="53">
+      <c r="G12" s="22">
         <v>1596.6020000000001</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>4</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
-      <c r="G13" s="56">
+      <c r="G13" s="22">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>5</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="53">
+      <c r="G14" s="22">
         <v>6.2549999999999999</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>6</v>
       </c>
-      <c r="B15" s="65" t="s">
-        <v>43</v>
+      <c r="B15" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="56">
+      <c r="G15" s="22">
         <v>1.0489999999999999</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="F16" s="37"/>
+      <c r="H16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50" t="s">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>1</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="83" t="s">
-        <v>23</v>
-      </c>
+    <row r="19" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>2</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="84"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>3</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="70" t="s">
+    <row r="20" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="84"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>4</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="84"/>
-    </row>
-    <row r="22" spans="1:21" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>5</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="84"/>
-    </row>
-    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>6</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="82"/>
-      <c r="H24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-    </row>
-    <row r="28" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="65">
-    <mergeCell ref="B18:C23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L18:L23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K10:L15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
+  <mergeCells count="54">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -2057,8 +1738,55 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.78740157480314998" bottom="0.39370078740157499" header="0.511811023622047" footer="0.118110236220472"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -2074,13 +1802,13 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
+                <xdr:rowOff>320040</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
